--- a/2019_by_background_by_gender.xlsx
+++ b/2019_by_background_by_gender.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayapatel/Documents/_/honours/Honours-FCI-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4B9D6-8AA6-0941-9AF1-497DB1062C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="17620" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -124,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +182,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -242,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,27 +260,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,24 +294,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,16 +469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -619,7 +567,7 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>71.595454545454544</v>
+        <v>71.59545454545454</v>
       </c>
       <c r="D2">
         <v>1.032202498452333</v>
@@ -634,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>0.30769230769230771</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -658,10 +606,10 @@
         <v>4.5</v>
       </c>
       <c r="V2">
-        <v>0.25714285714285712</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="W2">
-        <v>6.6666666666666652E-2</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="X2">
         <v>3.905124837953327</v>
@@ -679,7 +627,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -687,7 +635,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>71.595454545454544</v>
+        <v>71.59545454545454</v>
       </c>
       <c r="D3">
         <v>1.032202498452333</v>
@@ -702,55 +650,55 @@
         <v>12.78571428571429</v>
       </c>
       <c r="H3">
-        <v>1.0544441347368789</v>
+        <v>1.054444134736879</v>
       </c>
       <c r="I3">
         <v>1.785714285714286</v>
       </c>
       <c r="J3">
-        <v>9.3984962406015074E-2</v>
+        <v>0.09398496240601507</v>
       </c>
       <c r="K3">
-        <v>4.1900934043901231E-2</v>
+        <v>0.04190093404390123</v>
       </c>
       <c r="L3">
-        <v>1.5015690380858779</v>
+        <v>1.501569038085878</v>
       </c>
       <c r="M3">
-        <v>0.90892141990752906</v>
+        <v>0.9089214199075291</v>
       </c>
       <c r="N3">
         <v>14</v>
       </c>
       <c r="O3">
-        <v>58.214285714285722</v>
+        <v>58.21428571428572</v>
       </c>
       <c r="P3">
-        <v>4.7788206870059202</v>
+        <v>4.77882068700592</v>
       </c>
       <c r="Q3">
-        <v>15.851851851851849</v>
+        <v>15.85185185185185</v>
       </c>
       <c r="R3">
-        <v>1.3966827852360231</v>
+        <v>1.396682785236023</v>
       </c>
       <c r="S3">
         <v>18</v>
       </c>
       <c r="T3">
-        <v>1.4352104583750289</v>
+        <v>1.435210458375029</v>
       </c>
       <c r="U3">
-        <v>2.1481481481481488</v>
+        <v>2.148148148148149</v>
       </c>
       <c r="V3">
-        <v>0.15183246073298429</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="X3">
-        <v>2.0026362281761791</v>
+        <v>2.002636228176179</v>
       </c>
       <c r="Y3">
-        <v>0.66389102464421401</v>
+        <v>0.663891024644214</v>
       </c>
       <c r="Z3">
         <v>27</v>
@@ -762,7 +710,7 @@
         <v>2.949531394939787</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -770,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>71.595454545454544</v>
+        <v>71.59545454545454</v>
       </c>
       <c r="D4">
         <v>1.032202498452333</v>
@@ -779,7 +727,7 @@
         <v>13.03125</v>
       </c>
       <c r="F4">
-        <v>1.2018839168558559</v>
+        <v>1.201883916855856</v>
       </c>
       <c r="G4">
         <v>16.4375</v>
@@ -791,61 +739,61 @@
         <v>3.40625</v>
       </c>
       <c r="J4">
-        <v>0.20073664825046039</v>
+        <v>0.2007366482504604</v>
       </c>
       <c r="K4">
-        <v>5.6617649903158353E-2</v>
+        <v>0.05661764990315835</v>
       </c>
       <c r="L4">
-        <v>1.7697171925288679</v>
+        <v>1.769717192528868</v>
       </c>
       <c r="M4">
-        <v>0.73074665610129597</v>
+        <v>0.730746656101296</v>
       </c>
       <c r="N4">
         <v>32</v>
       </c>
       <c r="O4">
-        <v>73.060606060606062</v>
+        <v>73.06060606060606</v>
       </c>
       <c r="P4">
-        <v>2.3179713709190559</v>
+        <v>2.317971370919056</v>
       </c>
       <c r="Q4">
-        <v>19.038834951456309</v>
+        <v>19.03883495145631</v>
       </c>
       <c r="R4">
-        <v>0.61733359474366944</v>
+        <v>0.6173335947436694</v>
       </c>
       <c r="S4">
-        <v>21.660194174757279</v>
+        <v>21.66019417475728</v>
       </c>
       <c r="T4">
-        <v>0.59481761495565744</v>
+        <v>0.5948176149556574</v>
       </c>
       <c r="U4">
         <v>2.621359223300971</v>
       </c>
       <c r="V4">
-        <v>0.23914968999114261</v>
+        <v>0.2391496899911426</v>
       </c>
       <c r="X4">
-        <v>0.85726819739255333</v>
+        <v>0.8572681973925533</v>
       </c>
       <c r="Y4">
-        <v>0.38089650098306271</v>
+        <v>0.3808965009830627</v>
       </c>
       <c r="Z4">
         <v>103</v>
       </c>
       <c r="AA4">
-        <v>75.109090909090909</v>
+        <v>75.10909090909091</v>
       </c>
       <c r="AB4">
-        <v>1.3571756877047969</v>
+        <v>1.357175687704797</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -853,85 +801,85 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>77.573913043478257</v>
+        <v>77.57391304347826</v>
       </c>
       <c r="D5">
-        <v>0.67824272097261473</v>
+        <v>0.6782427209726147</v>
       </c>
       <c r="E5">
-        <v>7.8461538461538458</v>
+        <v>7.846153846153846</v>
       </c>
       <c r="F5">
-        <v>0.48948244657392631</v>
+        <v>0.4894824465739263</v>
       </c>
       <c r="G5">
         <v>13.76923076923077</v>
       </c>
       <c r="H5">
-        <v>0.71560732533817006</v>
+        <v>0.7156073253381701</v>
       </c>
       <c r="I5">
-        <v>5.9230769230769242</v>
+        <v>5.923076923076924</v>
       </c>
       <c r="J5">
-        <v>0.26736111111111122</v>
+        <v>0.2673611111111112</v>
       </c>
       <c r="K5">
-        <v>3.0164015108889171E-2</v>
+        <v>0.03016401510888917</v>
       </c>
       <c r="L5">
-        <v>0.86699879445224504</v>
+        <v>0.866998794452245</v>
       </c>
       <c r="M5">
-        <v>0.66570573328315763</v>
+        <v>0.6657057332831576</v>
       </c>
       <c r="N5">
         <v>39</v>
       </c>
       <c r="O5">
-        <v>74.976744186046517</v>
+        <v>74.97674418604652</v>
       </c>
       <c r="P5">
-        <v>1.7002665324553159</v>
+        <v>1.700266532455316</v>
       </c>
       <c r="Q5">
-        <v>10.388888888888889</v>
+        <v>10.38888888888889</v>
       </c>
       <c r="R5">
-        <v>0.93981951016782173</v>
+        <v>0.9398195101678217</v>
       </c>
       <c r="S5">
-        <v>17.333333333333329</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="T5">
         <v>1.255055137710217</v>
       </c>
       <c r="U5">
-        <v>6.9444444444444429</v>
+        <v>6.944444444444443</v>
       </c>
       <c r="V5">
-        <v>0.35410764872521239</v>
+        <v>0.3541076487252124</v>
       </c>
       <c r="W5">
-        <v>5.1590774861501508E-2</v>
+        <v>0.05159077486150151</v>
       </c>
       <c r="X5">
         <v>1.567936258393464</v>
       </c>
       <c r="Y5">
-        <v>0.77321255912145659</v>
+        <v>0.7732125591214566</v>
       </c>
       <c r="Z5">
         <v>18</v>
       </c>
       <c r="AA5">
-        <v>71.578947368421055</v>
+        <v>71.57894736842105</v>
       </c>
       <c r="AB5">
         <v>3.159794750046149</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -939,43 +887,43 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>77.573913043478257</v>
+        <v>77.57391304347826</v>
       </c>
       <c r="D6">
-        <v>0.67824272097261473</v>
+        <v>0.6782427209726147</v>
       </c>
       <c r="E6">
-        <v>9.5810810810810807</v>
+        <v>9.581081081081081</v>
       </c>
       <c r="F6">
-        <v>0.41492283789360829</v>
+        <v>0.4149228378936083</v>
       </c>
       <c r="G6">
         <v>13.86486486486486</v>
       </c>
       <c r="H6">
-        <v>0.52811524367099716</v>
+        <v>0.5281152436709972</v>
       </c>
       <c r="I6">
-        <v>4.2837837837837842</v>
+        <v>4.283783783783784</v>
       </c>
       <c r="J6">
         <v>0.2097948378557247</v>
       </c>
       <c r="K6">
-        <v>2.3433018362950239E-2</v>
+        <v>0.02343301836295024</v>
       </c>
       <c r="L6">
-        <v>0.67161497303392692</v>
+        <v>0.6716149730339269</v>
       </c>
       <c r="M6">
-        <v>0.46320370392834709</v>
+        <v>0.4632037039283471</v>
       </c>
       <c r="N6">
         <v>74</v>
       </c>
       <c r="O6">
-        <v>76.612499999999997</v>
+        <v>76.6125</v>
       </c>
       <c r="P6">
         <v>1.111717474752864</v>
@@ -987,25 +935,25 @@
         <v>1.247303329372266</v>
       </c>
       <c r="S6">
-        <v>18.782608695652179</v>
+        <v>18.78260869565218</v>
       </c>
       <c r="T6">
-        <v>1.3005874649209901</v>
+        <v>1.30058746492099</v>
       </c>
       <c r="U6">
-        <v>5.1304347826086971</v>
+        <v>5.130434782608697</v>
       </c>
       <c r="V6">
-        <v>0.31382978723404259</v>
+        <v>0.3138297872340426</v>
       </c>
       <c r="W6">
-        <v>6.058574331739857E-2</v>
+        <v>0.06058574331739857</v>
       </c>
       <c r="X6">
         <v>1.802024791553309</v>
       </c>
       <c r="Y6">
-        <v>0.76820294334143668</v>
+        <v>0.7682029433414367</v>
       </c>
       <c r="Z6">
         <v>23</v>
@@ -1014,10 +962,10 @@
         <v>74.28</v>
       </c>
       <c r="AB6">
-        <v>3.9232299618214239</v>
+        <v>3.923229961821424</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1025,43 +973,43 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>77.573913043478257</v>
+        <v>77.57391304347826</v>
       </c>
       <c r="D7">
-        <v>0.67824272097261473</v>
+        <v>0.6782427209726147</v>
       </c>
       <c r="E7">
-        <v>12.044117647058821</v>
+        <v>12.04411764705882</v>
       </c>
       <c r="F7">
-        <v>0.64183732083236045</v>
+        <v>0.6418373208323604</v>
       </c>
       <c r="G7">
-        <v>16.985294117647062</v>
+        <v>16.98529411764706</v>
       </c>
       <c r="H7">
         <v>0.7050839609836248</v>
       </c>
       <c r="I7">
-        <v>4.9411764705882337</v>
+        <v>4.941176470588234</v>
       </c>
       <c r="J7">
-        <v>0.27518427518427507</v>
+        <v>0.2751842751842751</v>
       </c>
       <c r="K7">
-        <v>3.2478754741902677E-2</v>
+        <v>0.03247875474190268</v>
       </c>
       <c r="L7">
-        <v>0.95346659010665924</v>
+        <v>0.9534665901066592</v>
       </c>
       <c r="M7">
-        <v>0.51316400183068167</v>
+        <v>0.5131640018306817</v>
       </c>
       <c r="N7">
         <v>68</v>
       </c>
       <c r="O7">
-        <v>81.115942028985501</v>
+        <v>81.1159420289855</v>
       </c>
       <c r="P7">
         <v>1.556075493937257</v>
@@ -1070,13 +1018,13 @@
         <v>15.74074074074074</v>
       </c>
       <c r="R7">
-        <v>0.87042612486275683</v>
+        <v>0.8704261248627568</v>
       </c>
       <c r="S7">
-        <v>19.222222222222221</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="T7">
-        <v>0.93524312943624355</v>
+        <v>0.9352431294362435</v>
       </c>
       <c r="U7">
         <v>3.481481481481481</v>
@@ -1085,16 +1033,16 @@
         <v>0.2441558441558441</v>
       </c>
       <c r="X7">
-        <v>1.2776233208584189</v>
+        <v>1.277623320858419</v>
       </c>
       <c r="Y7">
-        <v>0.57840278689327951</v>
+        <v>0.5784027868932795</v>
       </c>
       <c r="Z7">
         <v>54</v>
       </c>
       <c r="AA7">
-        <v>80.527272727272731</v>
+        <v>80.52727272727273</v>
       </c>
       <c r="AB7">
         <v>1.473184449137823</v>
